--- a/data/china_ie_partner/2017-10.xlsx
+++ b/data/china_ie_partner/2017-10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB8B841-A5BA-F345-B0D7-CFA6AC12A79D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DCEA5-8208-134B-AE30-4172171BC480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,752 +36,996 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -819,16 +1063,10 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -853,7 +1091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,9 +1108,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,24 +1443,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>27730</v>
+        <v>41978</v>
       </c>
       <c r="C2" s="2">
-        <v>27321</v>
+        <v>41357</v>
       </c>
       <c r="D2" s="3">
-        <v>409</v>
+        <v>621</v>
       </c>
       <c r="E2" s="4">
         <v>2017</v>
@@ -1240,16 +1475,16 @@
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>50399</v>
+        <v>76276</v>
       </c>
       <c r="C3" s="2">
-        <v>46977</v>
+        <v>71071</v>
       </c>
       <c r="D3" s="2">
-        <v>3422</v>
+        <v>5205</v>
       </c>
       <c r="E3" s="4">
         <v>2017</v>
@@ -1264,16 +1499,16 @@
     </row>
     <row r="4" spans="1:10" ht="21">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>763397</v>
+        <v>1155392</v>
       </c>
       <c r="C4" s="2">
-        <v>726792</v>
+        <v>1099733</v>
       </c>
       <c r="D4" s="2">
-        <v>36605</v>
+        <v>55659</v>
       </c>
       <c r="E4" s="4">
         <v>2017</v>
@@ -1288,16 +1523,16 @@
     </row>
     <row r="5" spans="1:10" ht="21">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="C5" s="3">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4">
         <v>2017</v>
@@ -1312,16 +1547,16 @@
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>86287</v>
+        <v>130939</v>
       </c>
       <c r="C6" s="2">
-        <v>49994</v>
+        <v>75673</v>
       </c>
       <c r="D6" s="2">
-        <v>36293</v>
+        <v>55266</v>
       </c>
       <c r="E6" s="4">
         <v>2017</v>
@@ -1336,16 +1571,16 @@
     </row>
     <row r="7" spans="1:10" ht="21">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>673883</v>
+        <v>1019267</v>
       </c>
       <c r="C7" s="2">
-        <v>492415</v>
+        <v>744396</v>
       </c>
       <c r="D7" s="2">
-        <v>181469</v>
+        <v>274872</v>
       </c>
       <c r="E7" s="4">
         <v>2017</v>
@@ -1360,16 +1595,16 @@
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>299773</v>
+        <v>454267</v>
       </c>
       <c r="C8" s="2">
-        <v>254256</v>
+        <v>385086</v>
       </c>
       <c r="D8" s="2">
-        <v>45518</v>
+        <v>69181</v>
       </c>
       <c r="E8" s="4">
         <v>2017</v>
@@ -1384,16 +1619,16 @@
     </row>
     <row r="9" spans="1:10" ht="21">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>21941</v>
+        <v>33091</v>
       </c>
       <c r="C9" s="2">
-        <v>20574</v>
+        <v>31028</v>
       </c>
       <c r="D9" s="2">
-        <v>1367</v>
+        <v>2063</v>
       </c>
       <c r="E9" s="4">
         <v>2017</v>
@@ -1408,16 +1643,16 @@
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>220426</v>
+        <v>334894</v>
       </c>
       <c r="C10" s="2">
-        <v>160724</v>
+        <v>244149</v>
       </c>
       <c r="D10" s="2">
-        <v>59701</v>
+        <v>90745</v>
       </c>
       <c r="E10" s="4">
         <v>2017</v>
@@ -1431,17 +1666,17 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="21">
-      <c r="A11" s="6" t="s">
-        <v>221</v>
+      <c r="A11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>15537074</v>
+        <v>23539150</v>
       </c>
       <c r="C11" s="2">
-        <v>15171610</v>
+        <v>22984294</v>
       </c>
       <c r="D11" s="2">
-        <v>365465</v>
+        <v>554856</v>
       </c>
       <c r="E11" s="4">
         <v>2017</v>
@@ -1456,16 +1691,16 @@
     </row>
     <row r="12" spans="1:10" ht="21">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>4182595</v>
+        <v>6333626</v>
       </c>
       <c r="C12" s="2">
-        <v>3368933</v>
+        <v>5096382</v>
       </c>
       <c r="D12" s="2">
-        <v>813662</v>
+        <v>1237245</v>
       </c>
       <c r="E12" s="4">
         <v>2017</v>
@@ -1480,16 +1715,16 @@
     </row>
     <row r="13" spans="1:10" ht="21">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>3556606</v>
+        <v>5390326</v>
       </c>
       <c r="C13" s="2">
-        <v>1826977</v>
+        <v>2764705</v>
       </c>
       <c r="D13" s="2">
-        <v>1729629</v>
+        <v>2625622</v>
       </c>
       <c r="E13" s="4">
         <v>2017</v>
@@ -1504,16 +1739,16 @@
     </row>
     <row r="14" spans="1:10" ht="21">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>2090801</v>
+        <v>3166012</v>
       </c>
       <c r="C14" s="2">
-        <v>1054723</v>
+        <v>1593249</v>
       </c>
       <c r="D14" s="2">
-        <v>1036078</v>
+        <v>1572763</v>
       </c>
       <c r="E14" s="4">
         <v>2017</v>
@@ -1528,16 +1763,16 @@
     </row>
     <row r="15" spans="1:10" ht="21">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>1015532</v>
+        <v>1540869</v>
       </c>
       <c r="C15" s="2">
-        <v>370506</v>
+        <v>560224</v>
       </c>
       <c r="D15" s="2">
-        <v>645026</v>
+        <v>980644</v>
       </c>
       <c r="E15" s="4">
         <v>2017</v>
@@ -1552,16 +1787,16 @@
     </row>
     <row r="16" spans="1:10" ht="21">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>717420</v>
+        <v>1087753</v>
       </c>
       <c r="C16" s="2">
-        <v>471753</v>
+        <v>713872</v>
       </c>
       <c r="D16" s="2">
-        <v>245667</v>
+        <v>373882</v>
       </c>
       <c r="E16" s="4">
         <v>2017</v>
@@ -1576,16 +1811,16 @@
     </row>
     <row r="17" spans="1:10" ht="21">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>16763520</v>
+        <v>25394982</v>
       </c>
       <c r="C17" s="2">
-        <v>7726179</v>
+        <v>11696659</v>
       </c>
       <c r="D17" s="2">
-        <v>9037341</v>
+        <v>13698323</v>
       </c>
       <c r="E17" s="4">
         <v>2017</v>
@@ -1600,16 +1835,16 @@
     </row>
     <row r="18" spans="1:10" ht="21">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>148834</v>
+        <v>225445</v>
       </c>
       <c r="C18" s="2">
-        <v>134104</v>
+        <v>203016</v>
       </c>
       <c r="D18" s="2">
-        <v>14731</v>
+        <v>22428</v>
       </c>
       <c r="E18" s="4">
         <v>2017</v>
@@ -1624,16 +1859,16 @@
     </row>
     <row r="19" spans="1:10" ht="21">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>716438</v>
+        <v>1085739</v>
       </c>
       <c r="C19" s="2">
-        <v>186071</v>
+        <v>281033</v>
       </c>
       <c r="D19" s="2">
-        <v>530368</v>
+        <v>804706</v>
       </c>
       <c r="E19" s="4">
         <v>2017</v>
@@ -1648,16 +1883,16 @@
     </row>
     <row r="20" spans="1:10" ht="21">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>150313</v>
+        <v>227683</v>
       </c>
       <c r="C20" s="2">
-        <v>90881</v>
+        <v>137530</v>
       </c>
       <c r="D20" s="2">
-        <v>59432</v>
+        <v>90153</v>
       </c>
       <c r="E20" s="4">
         <v>2017</v>
@@ -1672,16 +1907,16 @@
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>100492</v>
+        <v>152004</v>
       </c>
       <c r="C21" s="2">
-        <v>99696</v>
-      </c>
-      <c r="D21" s="3">
-        <v>796</v>
+        <v>150792</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1212</v>
       </c>
       <c r="E21" s="4">
         <v>2017</v>
@@ -1696,16 +1931,16 @@
     </row>
     <row r="22" spans="1:10" ht="21">
       <c r="A22" s="5" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>151411</v>
+        <v>229774</v>
       </c>
       <c r="C22" s="2">
-        <v>147388</v>
+        <v>223658</v>
       </c>
       <c r="D22" s="2">
-        <v>4023</v>
+        <v>6117</v>
       </c>
       <c r="E22" s="4">
         <v>2017</v>
@@ -1720,16 +1955,16 @@
     </row>
     <row r="23" spans="1:10" ht="21">
       <c r="A23" s="5" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>5183373</v>
+        <v>7861218</v>
       </c>
       <c r="C23" s="2">
-        <v>2320071</v>
+        <v>3511610</v>
       </c>
       <c r="D23" s="2">
-        <v>2863303</v>
+        <v>4349608</v>
       </c>
       <c r="E23" s="4">
         <v>2017</v>
@@ -1744,16 +1979,16 @@
     </row>
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>25711</v>
+        <v>38828</v>
       </c>
       <c r="C24" s="2">
-        <v>25678</v>
+        <v>38780</v>
       </c>
       <c r="D24" s="3">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E24" s="4">
         <v>2017</v>
@@ -1768,16 +2003,16 @@
     </row>
     <row r="25" spans="1:10" ht="21">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>342357</v>
+        <v>519174</v>
       </c>
       <c r="C25" s="2">
-        <v>64571</v>
+        <v>97809</v>
       </c>
       <c r="D25" s="2">
-        <v>277786</v>
+        <v>421365</v>
       </c>
       <c r="E25" s="4">
         <v>2017</v>
@@ -1792,16 +2027,16 @@
     </row>
     <row r="26" spans="1:10" ht="21">
       <c r="A26" s="5" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>42355</v>
+        <v>64096</v>
       </c>
       <c r="C26" s="2">
-        <v>41807</v>
+        <v>63265</v>
       </c>
       <c r="D26" s="3">
-        <v>548</v>
+        <v>831</v>
       </c>
       <c r="E26" s="4">
         <v>2017</v>
@@ -1816,16 +2051,16 @@
     </row>
     <row r="27" spans="1:10" ht="21">
       <c r="A27" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>506465</v>
+        <v>770225</v>
       </c>
       <c r="C27" s="2">
-        <v>102991</v>
+        <v>155829</v>
       </c>
       <c r="D27" s="2">
-        <v>403474</v>
+        <v>614396</v>
       </c>
       <c r="E27" s="4">
         <v>2017</v>
@@ -1840,16 +2075,16 @@
     </row>
     <row r="28" spans="1:10" ht="21">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>981710</v>
+        <v>1485591</v>
       </c>
       <c r="C28" s="2">
-        <v>872830</v>
+        <v>1319879</v>
       </c>
       <c r="D28" s="2">
-        <v>108880</v>
+        <v>165712</v>
       </c>
       <c r="E28" s="4">
         <v>2017</v>
@@ -1864,16 +2099,16 @@
     </row>
     <row r="29" spans="1:10" ht="21">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>3791</v>
+        <v>5732</v>
       </c>
       <c r="C29" s="2">
-        <v>3784</v>
+        <v>5722</v>
       </c>
       <c r="D29" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4">
         <v>2017</v>
@@ -1888,16 +2123,16 @@
     </row>
     <row r="30" spans="1:10" ht="21">
       <c r="A30" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>3038945</v>
+        <v>4606532</v>
       </c>
       <c r="C30" s="2">
-        <v>1929325</v>
+        <v>2920990</v>
       </c>
       <c r="D30" s="2">
-        <v>1109620</v>
+        <v>1685542</v>
       </c>
       <c r="E30" s="4">
         <v>2017</v>
@@ -1912,16 +2147,16 @@
     </row>
     <row r="31" spans="1:10" ht="21">
       <c r="A31" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>432534</v>
+        <v>657062</v>
       </c>
       <c r="C31" s="2">
-        <v>108537</v>
+        <v>164124</v>
       </c>
       <c r="D31" s="2">
-        <v>323997</v>
+        <v>492938</v>
       </c>
       <c r="E31" s="4">
         <v>2017</v>
@@ -1936,16 +2171,16 @@
     </row>
     <row r="32" spans="1:10" ht="21">
       <c r="A32" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>2620661</v>
+        <v>3977611</v>
       </c>
       <c r="C32" s="2">
-        <v>753204</v>
+        <v>1139234</v>
       </c>
       <c r="D32" s="2">
-        <v>1867457</v>
+        <v>2838377</v>
       </c>
       <c r="E32" s="4">
         <v>2017</v>
@@ -1960,16 +2195,16 @@
     </row>
     <row r="33" spans="1:10" ht="21">
       <c r="A33" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>4566487</v>
+        <v>6917207</v>
       </c>
       <c r="C33" s="2">
-        <v>2616936</v>
+        <v>3953759</v>
       </c>
       <c r="D33" s="2">
-        <v>1949552</v>
+        <v>2963448</v>
       </c>
       <c r="E33" s="4">
         <v>2017</v>
@@ -1984,16 +2219,16 @@
     </row>
     <row r="34" spans="1:10" ht="21">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>15608804</v>
+        <v>23687976</v>
       </c>
       <c r="C34" s="2">
-        <v>5510228</v>
+        <v>8343893</v>
       </c>
       <c r="D34" s="2">
-        <v>10098576</v>
+        <v>15344084</v>
       </c>
       <c r="E34" s="4">
         <v>2017</v>
@@ -2008,16 +2243,16 @@
     </row>
     <row r="35" spans="1:10" ht="21">
       <c r="A35" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>215269</v>
+        <v>326023</v>
       </c>
       <c r="C35" s="2">
-        <v>199713</v>
+        <v>302399</v>
       </c>
       <c r="D35" s="2">
-        <v>15556</v>
+        <v>23624</v>
       </c>
       <c r="E35" s="4">
         <v>2017</v>
@@ -2032,16 +2267,16 @@
     </row>
     <row r="36" spans="1:10" ht="21">
       <c r="A36" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>58105</v>
+        <v>87844</v>
       </c>
       <c r="C36" s="2">
-        <v>58094</v>
+        <v>87828</v>
       </c>
       <c r="D36" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E36" s="4">
         <v>2017</v>
@@ -2056,16 +2291,16 @@
     </row>
     <row r="37" spans="1:10" ht="21">
       <c r="A37" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>4520124</v>
+        <v>6855261</v>
       </c>
       <c r="C37" s="2">
-        <v>2226872</v>
+        <v>3372460</v>
       </c>
       <c r="D37" s="2">
-        <v>2293251</v>
+        <v>3482801</v>
       </c>
       <c r="E37" s="4">
         <v>2017</v>
@@ -2080,16 +2315,16 @@
     </row>
     <row r="38" spans="1:10" ht="21">
       <c r="A38" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>1202806</v>
+        <v>1821135</v>
       </c>
       <c r="C38" s="2">
-        <v>997919</v>
+        <v>1509904</v>
       </c>
       <c r="D38" s="2">
-        <v>204887</v>
+        <v>311231</v>
       </c>
       <c r="E38" s="4">
         <v>2017</v>
@@ -2104,16 +2339,16 @@
     </row>
     <row r="39" spans="1:10" ht="21">
       <c r="A39" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>2102203</v>
+        <v>3184535</v>
       </c>
       <c r="C39" s="2">
-        <v>1460994</v>
+        <v>2211094</v>
       </c>
       <c r="D39" s="2">
-        <v>641209</v>
+        <v>973441</v>
       </c>
       <c r="E39" s="4">
         <v>2017</v>
@@ -2128,16 +2363,16 @@
     </row>
     <row r="40" spans="1:10" ht="21">
       <c r="A40" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>77064</v>
+        <v>116568</v>
       </c>
       <c r="C40" s="2">
-        <v>76230</v>
-      </c>
-      <c r="D40" s="3">
-        <v>834</v>
+        <v>115301</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1267</v>
       </c>
       <c r="E40" s="4">
         <v>2017</v>
@@ -2152,16 +2387,16 @@
     </row>
     <row r="41" spans="1:10" ht="21">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>7633985</v>
+        <v>11563187</v>
       </c>
       <c r="C41" s="2">
-        <v>4298778</v>
+        <v>6507826</v>
       </c>
       <c r="D41" s="2">
-        <v>3335208</v>
+        <v>5055361</v>
       </c>
       <c r="E41" s="4">
         <v>2017</v>
@@ -2176,16 +2411,16 @@
     </row>
     <row r="42" spans="1:10" ht="21">
       <c r="A42" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>7664651</v>
+        <v>11624626</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>7664651</v>
+        <v>11624626</v>
       </c>
       <c r="E42" s="4">
         <v>2017</v>
@@ -2199,17 +2434,17 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="6" t="s">
-        <v>223</v>
+      <c r="A43" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>11727453</v>
+        <v>17796361</v>
       </c>
       <c r="C43" s="2">
-        <v>2431619</v>
+        <v>3684250</v>
       </c>
       <c r="D43" s="2">
-        <v>9295834</v>
+        <v>14112111</v>
       </c>
       <c r="E43" s="4">
         <v>2017</v>
@@ -2224,16 +2459,16 @@
     </row>
     <row r="44" spans="1:10" ht="21">
       <c r="A44" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
-        <v>6996</v>
+        <v>10564</v>
       </c>
       <c r="C44" s="2">
-        <v>6870</v>
+        <v>10372</v>
       </c>
       <c r="D44" s="3">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="E44" s="4">
         <v>2017</v>
@@ -2248,16 +2483,16 @@
     </row>
     <row r="45" spans="1:10" ht="21">
       <c r="A45" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>1186527</v>
+        <v>1796561</v>
       </c>
       <c r="C45" s="2">
-        <v>698191</v>
+        <v>1059175</v>
       </c>
       <c r="D45" s="2">
-        <v>488337</v>
+        <v>737386</v>
       </c>
       <c r="E45" s="4">
         <v>2017</v>
@@ -2272,16 +2507,16 @@
     </row>
     <row r="46" spans="1:10" ht="21">
       <c r="A46" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>234611</v>
+        <v>355900</v>
       </c>
       <c r="C46" s="2">
-        <v>230189</v>
+        <v>349165</v>
       </c>
       <c r="D46" s="2">
-        <v>4423</v>
+        <v>6735</v>
       </c>
       <c r="E46" s="4">
         <v>2017</v>
@@ -2296,16 +2531,16 @@
     </row>
     <row r="47" spans="1:10" ht="21">
       <c r="A47" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
-        <v>57239</v>
+        <v>87010</v>
       </c>
       <c r="C47" s="2">
-        <v>55441</v>
+        <v>84273</v>
       </c>
       <c r="D47" s="2">
-        <v>1798</v>
+        <v>2738</v>
       </c>
       <c r="E47" s="4">
         <v>2017</v>
@@ -2320,16 +2555,16 @@
     </row>
     <row r="48" spans="1:10" ht="21">
       <c r="A48" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>329403</v>
+        <v>501431</v>
       </c>
       <c r="C48" s="2">
-        <v>12452</v>
+        <v>18830</v>
       </c>
       <c r="D48" s="2">
-        <v>316951</v>
+        <v>482601</v>
       </c>
       <c r="E48" s="4">
         <v>2017</v>
@@ -2344,16 +2579,16 @@
     </row>
     <row r="49" spans="1:10" ht="21">
       <c r="A49" s="5" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>272183</v>
+        <v>411670</v>
       </c>
       <c r="C49" s="2">
-        <v>159553</v>
+        <v>241099</v>
       </c>
       <c r="D49" s="2">
-        <v>112631</v>
+        <v>170571</v>
       </c>
       <c r="E49" s="4">
         <v>2017</v>
@@ -2368,16 +2603,16 @@
     </row>
     <row r="50" spans="1:10" ht="21">
       <c r="A50" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B50" s="3">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D50" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E50" s="4">
         <v>2017</v>
@@ -2392,16 +2627,16 @@
     </row>
     <row r="51" spans="1:10" ht="21">
       <c r="A51" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>8918100</v>
+        <v>13517102</v>
       </c>
       <c r="C51" s="2">
-        <v>4982293</v>
+        <v>7536742</v>
       </c>
       <c r="D51" s="2">
-        <v>3935807</v>
+        <v>5980361</v>
       </c>
       <c r="E51" s="4">
         <v>2017</v>
@@ -2416,16 +2651,16 @@
     </row>
     <row r="52" spans="1:10" ht="21">
       <c r="A52" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>371235</v>
+        <v>560100</v>
       </c>
       <c r="C52" s="2">
-        <v>267194</v>
+        <v>403576</v>
       </c>
       <c r="D52" s="2">
-        <v>104041</v>
+        <v>156524</v>
       </c>
       <c r="E52" s="4">
         <v>2017</v>
@@ -2440,16 +2675,16 @@
     </row>
     <row r="53" spans="1:10" ht="21">
       <c r="A53" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>1102305</v>
+        <v>1673385</v>
       </c>
       <c r="C53" s="2">
-        <v>145780</v>
+        <v>220299</v>
       </c>
       <c r="D53" s="2">
-        <v>956524</v>
+        <v>1453085</v>
       </c>
       <c r="E53" s="4">
         <v>2017</v>
@@ -2464,16 +2699,16 @@
     </row>
     <row r="54" spans="1:10" ht="21">
       <c r="A54" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>115462</v>
+        <v>174667</v>
       </c>
       <c r="C54" s="2">
-        <v>109950</v>
+        <v>166278</v>
       </c>
       <c r="D54" s="2">
-        <v>5511</v>
+        <v>8389</v>
       </c>
       <c r="E54" s="4">
         <v>2017</v>
@@ -2488,16 +2723,16 @@
     </row>
     <row r="55" spans="1:10" ht="21">
       <c r="A55" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>17287</v>
+        <v>26165</v>
       </c>
       <c r="C55" s="2">
-        <v>14586</v>
+        <v>22051</v>
       </c>
       <c r="D55" s="2">
-        <v>2701</v>
+        <v>4113</v>
       </c>
       <c r="E55" s="4">
         <v>2017</v>
@@ -2512,16 +2747,16 @@
     </row>
     <row r="56" spans="1:10" ht="21">
       <c r="A56" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>2289</v>
+        <v>3464</v>
       </c>
       <c r="C56" s="2">
-        <v>1689</v>
+        <v>2552</v>
       </c>
       <c r="D56" s="3">
-        <v>599</v>
+        <v>913</v>
       </c>
       <c r="E56" s="4">
         <v>2017</v>
@@ -2536,16 +2771,16 @@
     </row>
     <row r="57" spans="1:10" ht="21">
       <c r="A57" s="5" t="s">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>118339</v>
+        <v>179132</v>
       </c>
       <c r="C57" s="2">
-        <v>75580</v>
+        <v>114233</v>
       </c>
       <c r="D57" s="2">
-        <v>42759</v>
+        <v>64899</v>
       </c>
       <c r="E57" s="4">
         <v>2017</v>
@@ -2560,13 +2795,13 @@
     </row>
     <row r="58" spans="1:10" ht="21">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="C58" s="3">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -2584,13 +2819,13 @@
     </row>
     <row r="59" spans="1:10" ht="21">
       <c r="A59" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>4691</v>
+        <v>7079</v>
       </c>
       <c r="C59" s="2">
-        <v>4691</v>
+        <v>7078</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -2608,16 +2843,16 @@
     </row>
     <row r="60" spans="1:10" ht="21">
       <c r="A60" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>2041</v>
-      </c>
-      <c r="C60" s="3">
-        <v>802</v>
+        <v>3075</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1210</v>
       </c>
       <c r="D60" s="2">
-        <v>1239</v>
+        <v>1865</v>
       </c>
       <c r="E60" s="4">
         <v>2017</v>
@@ -2632,16 +2867,16 @@
     </row>
     <row r="61" spans="1:10" ht="21">
       <c r="A61" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="4">
         <v>2017</v>
@@ -2656,16 +2891,16 @@
     </row>
     <row r="62" spans="1:10" ht="21">
       <c r="A62" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>4355</v>
+        <v>6568</v>
       </c>
       <c r="C62" s="2">
-        <v>4338</v>
+        <v>6541</v>
       </c>
       <c r="D62" s="3">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E62" s="4">
         <v>2017</v>
@@ -2680,13 +2915,13 @@
     </row>
     <row r="63" spans="1:10" ht="21">
       <c r="A63" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>3345</v>
+        <v>5063</v>
       </c>
       <c r="C63" s="2">
-        <v>3345</v>
+        <v>5063</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -2704,16 +2939,16 @@
     </row>
     <row r="64" spans="1:10" ht="21">
       <c r="A64" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>213803</v>
+        <v>324872</v>
       </c>
       <c r="C64" s="2">
-        <v>22735</v>
+        <v>34390</v>
       </c>
       <c r="D64" s="2">
-        <v>191068</v>
+        <v>290482</v>
       </c>
       <c r="E64" s="4">
         <v>2017</v>
@@ -2728,13 +2963,13 @@
     </row>
     <row r="65" spans="1:10" ht="21">
       <c r="A65" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
-        <v>90399</v>
+        <v>136862</v>
       </c>
       <c r="C65" s="2">
-        <v>90398</v>
+        <v>136861</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
@@ -2752,16 +2987,16 @@
     </row>
     <row r="66" spans="1:10" ht="21">
       <c r="A66" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>548199</v>
+        <v>830103</v>
       </c>
       <c r="C66" s="2">
-        <v>479072</v>
+        <v>724859</v>
       </c>
       <c r="D66" s="2">
-        <v>69127</v>
+        <v>105244</v>
       </c>
       <c r="E66" s="4">
         <v>2017</v>
@@ -2776,16 +3011,16 @@
     </row>
     <row r="67" spans="1:10" ht="21">
       <c r="A67" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>57320</v>
+        <v>87104</v>
       </c>
       <c r="C67" s="2">
-        <v>7753</v>
+        <v>11712</v>
       </c>
       <c r="D67" s="2">
-        <v>49567</v>
+        <v>75392</v>
       </c>
       <c r="E67" s="4">
         <v>2017</v>
@@ -2800,16 +3035,16 @@
     </row>
     <row r="68" spans="1:10" ht="21">
       <c r="A68" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>101980</v>
+        <v>154399</v>
       </c>
       <c r="C68" s="2">
-        <v>85249</v>
+        <v>128940</v>
       </c>
       <c r="D68" s="2">
-        <v>16731</v>
+        <v>25460</v>
       </c>
       <c r="E68" s="4">
         <v>2017</v>
@@ -2824,16 +3059,16 @@
     </row>
     <row r="69" spans="1:10" ht="21">
       <c r="A69" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>176079</v>
+        <v>267722</v>
       </c>
       <c r="C69" s="2">
-        <v>14072</v>
+        <v>21247</v>
       </c>
       <c r="D69" s="2">
-        <v>162007</v>
+        <v>246475</v>
       </c>
       <c r="E69" s="4">
         <v>2017</v>
@@ -2848,16 +3083,16 @@
     </row>
     <row r="70" spans="1:10" ht="21">
       <c r="A70" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>36874</v>
+        <v>55951</v>
       </c>
       <c r="C70" s="2">
-        <v>26729</v>
+        <v>40504</v>
       </c>
       <c r="D70" s="2">
-        <v>10145</v>
+        <v>15447</v>
       </c>
       <c r="E70" s="4">
         <v>2017</v>
@@ -2872,16 +3107,16 @@
     </row>
     <row r="71" spans="1:10" ht="21">
       <c r="A71" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>478351</v>
+        <v>724801</v>
       </c>
       <c r="C71" s="2">
-        <v>342093</v>
+        <v>518477</v>
       </c>
       <c r="D71" s="2">
-        <v>136258</v>
+        <v>206324</v>
       </c>
       <c r="E71" s="4">
         <v>2017</v>
@@ -2896,16 +3131,16 @@
     </row>
     <row r="72" spans="1:10" ht="21">
       <c r="A72" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>122531</v>
+        <v>185951</v>
       </c>
       <c r="C72" s="2">
-        <v>62067</v>
+        <v>93879</v>
       </c>
       <c r="D72" s="2">
-        <v>60464</v>
+        <v>92072</v>
       </c>
       <c r="E72" s="4">
         <v>2017</v>
@@ -2920,13 +3155,13 @@
     </row>
     <row r="73" spans="1:10" ht="21">
       <c r="A73" s="5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>5557</v>
+        <v>8453</v>
       </c>
       <c r="C73" s="2">
-        <v>5557</v>
+        <v>8453</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -2944,16 +3179,16 @@
     </row>
     <row r="74" spans="1:10" ht="21">
       <c r="A74" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>96953</v>
+        <v>146643</v>
       </c>
       <c r="C74" s="2">
-        <v>90965</v>
+        <v>137528</v>
       </c>
       <c r="D74" s="2">
-        <v>5988</v>
+        <v>9116</v>
       </c>
       <c r="E74" s="4">
         <v>2017</v>
@@ -2968,16 +3203,16 @@
     </row>
     <row r="75" spans="1:10" ht="21">
       <c r="A75" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>244039</v>
+        <v>369248</v>
       </c>
       <c r="C75" s="2">
-        <v>235723</v>
+        <v>356588</v>
       </c>
       <c r="D75" s="2">
-        <v>8316</v>
+        <v>12660</v>
       </c>
       <c r="E75" s="4">
         <v>2017</v>
@@ -2992,16 +3227,16 @@
     </row>
     <row r="76" spans="1:10" ht="21">
       <c r="A76" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>33916</v>
+        <v>51082</v>
       </c>
       <c r="C76" s="2">
-        <v>33839</v>
+        <v>50965</v>
       </c>
       <c r="D76" s="3">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E76" s="4">
         <v>2017</v>
@@ -3016,16 +3251,16 @@
     </row>
     <row r="77" spans="1:10" ht="21">
       <c r="A77" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>57840</v>
+        <v>87555</v>
       </c>
       <c r="C77" s="2">
-        <v>57838</v>
+        <v>87553</v>
       </c>
       <c r="D77" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="4">
         <v>2017</v>
@@ -3040,16 +3275,16 @@
     </row>
     <row r="78" spans="1:10" ht="21">
       <c r="A78" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>68781</v>
+        <v>104096</v>
       </c>
       <c r="C78" s="2">
-        <v>57190</v>
+        <v>86508</v>
       </c>
       <c r="D78" s="2">
-        <v>11590</v>
+        <v>17587</v>
       </c>
       <c r="E78" s="4">
         <v>2017</v>
@@ -3064,16 +3299,16 @@
     </row>
     <row r="79" spans="1:10" ht="21">
       <c r="A79" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>15353</v>
+        <v>23219</v>
       </c>
       <c r="C79" s="2">
-        <v>15332</v>
+        <v>23188</v>
       </c>
       <c r="D79" s="3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E79" s="4">
         <v>2017</v>
@@ -3088,16 +3323,16 @@
     </row>
     <row r="80" spans="1:10" ht="21">
       <c r="A80" s="5" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2">
-        <v>24080</v>
+        <v>36478</v>
       </c>
       <c r="C80" s="2">
-        <v>18294</v>
+        <v>27676</v>
       </c>
       <c r="D80" s="2">
-        <v>5786</v>
+        <v>8803</v>
       </c>
       <c r="E80" s="4">
         <v>2017</v>
@@ -3112,16 +3347,16 @@
     </row>
     <row r="81" spans="1:10" ht="21">
       <c r="A81" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2">
-        <v>74816</v>
+        <v>113437</v>
       </c>
       <c r="C81" s="2">
-        <v>44549</v>
+        <v>67354</v>
       </c>
       <c r="D81" s="2">
-        <v>30267</v>
+        <v>46084</v>
       </c>
       <c r="E81" s="4">
         <v>2017</v>
@@ -3136,16 +3371,16 @@
     </row>
     <row r="82" spans="1:10" ht="21">
       <c r="A82" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>47489</v>
+        <v>71819</v>
       </c>
       <c r="C82" s="2">
-        <v>46514</v>
-      </c>
-      <c r="D82" s="3">
-        <v>975</v>
+        <v>70341</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1478</v>
       </c>
       <c r="E82" s="4">
         <v>2017</v>
@@ -3160,16 +3395,16 @@
     </row>
     <row r="83" spans="1:10" ht="21">
       <c r="A83" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>189645</v>
+        <v>286938</v>
       </c>
       <c r="C83" s="2">
-        <v>159276</v>
+        <v>240827</v>
       </c>
       <c r="D83" s="2">
-        <v>30369</v>
+        <v>46111</v>
       </c>
       <c r="E83" s="4">
         <v>2017</v>
@@ -3184,16 +3419,16 @@
     </row>
     <row r="84" spans="1:10" ht="21">
       <c r="A84" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>103510</v>
+        <v>156741</v>
       </c>
       <c r="C84" s="2">
-        <v>77349</v>
+        <v>116920</v>
       </c>
       <c r="D84" s="2">
-        <v>26161</v>
+        <v>39821</v>
       </c>
       <c r="E84" s="4">
         <v>2017</v>
@@ -3208,16 +3443,16 @@
     </row>
     <row r="85" spans="1:10" ht="21">
       <c r="A85" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>47181</v>
+        <v>71682</v>
       </c>
       <c r="C85" s="2">
-        <v>15018</v>
+        <v>22708</v>
       </c>
       <c r="D85" s="2">
-        <v>32163</v>
+        <v>48975</v>
       </c>
       <c r="E85" s="4">
         <v>2017</v>
@@ -3232,16 +3467,16 @@
     </row>
     <row r="86" spans="1:10" ht="21">
       <c r="A86" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>6698</v>
+        <v>10157</v>
       </c>
       <c r="C86" s="2">
-        <v>4087</v>
+        <v>6181</v>
       </c>
       <c r="D86" s="2">
-        <v>2611</v>
+        <v>3976</v>
       </c>
       <c r="E86" s="4">
         <v>2017</v>
@@ -3256,16 +3491,16 @@
     </row>
     <row r="87" spans="1:10" ht="21">
       <c r="A87" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>738848</v>
+        <v>1118880</v>
       </c>
       <c r="C87" s="2">
-        <v>658608</v>
+        <v>996976</v>
       </c>
       <c r="D87" s="2">
-        <v>80240</v>
+        <v>121904</v>
       </c>
       <c r="E87" s="4">
         <v>2017</v>
@@ -3280,16 +3515,16 @@
     </row>
     <row r="88" spans="1:10" ht="21">
       <c r="A88" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2">
-        <v>8986</v>
+        <v>13593</v>
       </c>
       <c r="C88" s="2">
-        <v>8983</v>
+        <v>13588</v>
       </c>
       <c r="D88" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E88" s="4">
         <v>2017</v>
@@ -3304,16 +3539,16 @@
     </row>
     <row r="89" spans="1:10" ht="21">
       <c r="A89" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>9291</v>
+        <v>14074</v>
       </c>
       <c r="C89" s="2">
-        <v>7120</v>
+        <v>10769</v>
       </c>
       <c r="D89" s="2">
-        <v>2171</v>
+        <v>3305</v>
       </c>
       <c r="E89" s="4">
         <v>2017</v>
@@ -3328,16 +3563,16 @@
     </row>
     <row r="90" spans="1:10" ht="21">
       <c r="A90" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B90" s="3">
-        <v>656</v>
+        <v>981</v>
       </c>
       <c r="C90" s="3">
-        <v>656</v>
+        <v>981</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E90" s="4">
         <v>2017</v>
@@ -3352,16 +3587,16 @@
     </row>
     <row r="91" spans="1:10" ht="21">
       <c r="A91" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>118371</v>
+        <v>179107</v>
       </c>
       <c r="C91" s="2">
-        <v>116522</v>
+        <v>176297</v>
       </c>
       <c r="D91" s="2">
-        <v>1849</v>
+        <v>2811</v>
       </c>
       <c r="E91" s="4">
         <v>2017</v>
@@ -3376,16 +3611,16 @@
     </row>
     <row r="92" spans="1:10" ht="21">
       <c r="A92" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>2634</v>
+        <v>3967</v>
       </c>
       <c r="C92" s="2">
-        <v>2632</v>
+        <v>3965</v>
       </c>
       <c r="D92" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" s="4">
         <v>2017</v>
@@ -3400,16 +3635,16 @@
     </row>
     <row r="93" spans="1:10" ht="21">
       <c r="A93" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>33228</v>
+        <v>50392</v>
       </c>
       <c r="C93" s="2">
-        <v>12697</v>
+        <v>19197</v>
       </c>
       <c r="D93" s="2">
-        <v>20531</v>
+        <v>31195</v>
       </c>
       <c r="E93" s="4">
         <v>2017</v>
@@ -3424,16 +3659,16 @@
     </row>
     <row r="94" spans="1:10" ht="21">
       <c r="A94" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2">
-        <v>27351</v>
+        <v>41395</v>
       </c>
       <c r="C94" s="2">
-        <v>26794</v>
+        <v>40553</v>
       </c>
       <c r="D94" s="3">
-        <v>557</v>
+        <v>842</v>
       </c>
       <c r="E94" s="4">
         <v>2017</v>
@@ -3448,16 +3683,16 @@
     </row>
     <row r="95" spans="1:10" ht="21">
       <c r="A95" s="5" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2">
-        <v>2217388</v>
+        <v>3364449</v>
       </c>
       <c r="C95" s="2">
-        <v>914952</v>
+        <v>1384151</v>
       </c>
       <c r="D95" s="2">
-        <v>1302435</v>
+        <v>1980298</v>
       </c>
       <c r="E95" s="4">
         <v>2017</v>
@@ -3472,16 +3707,16 @@
     </row>
     <row r="96" spans="1:10" ht="21">
       <c r="A96" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="4">
         <v>2017</v>
@@ -3496,16 +3731,16 @@
     </row>
     <row r="97" spans="1:10" ht="21">
       <c r="A97" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2">
-        <v>106089</v>
+        <v>160239</v>
       </c>
       <c r="C97" s="2">
-        <v>90736</v>
+        <v>136950</v>
       </c>
       <c r="D97" s="2">
-        <v>15353</v>
+        <v>23289</v>
       </c>
       <c r="E97" s="4">
         <v>2017</v>
@@ -3520,16 +3755,16 @@
     </row>
     <row r="98" spans="1:10" ht="21">
       <c r="A98" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2">
-        <v>190933</v>
+        <v>288854</v>
       </c>
       <c r="C98" s="2">
-        <v>176643</v>
+        <v>267096</v>
       </c>
       <c r="D98" s="2">
-        <v>14289</v>
+        <v>21758</v>
       </c>
       <c r="E98" s="4">
         <v>2017</v>
@@ -3544,16 +3779,16 @@
     </row>
     <row r="99" spans="1:10" ht="21">
       <c r="A99" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2">
-        <v>113618</v>
+        <v>172113</v>
       </c>
       <c r="C99" s="2">
-        <v>106586</v>
+        <v>161406</v>
       </c>
       <c r="D99" s="2">
-        <v>7032</v>
+        <v>10708</v>
       </c>
       <c r="E99" s="4">
         <v>2017</v>
@@ -3568,16 +3803,16 @@
     </row>
     <row r="100" spans="1:10" ht="21">
       <c r="A100" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2">
-        <v>76835</v>
+        <v>116139</v>
       </c>
       <c r="C100" s="2">
-        <v>62867</v>
+        <v>95017</v>
       </c>
       <c r="D100" s="2">
-        <v>13968</v>
+        <v>21122</v>
       </c>
       <c r="E100" s="4">
         <v>2017</v>
@@ -3592,16 +3827,16 @@
     </row>
     <row r="101" spans="1:10" ht="21">
       <c r="A101" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2">
-        <v>35562</v>
+        <v>53791</v>
       </c>
       <c r="C101" s="2">
-        <v>34037</v>
+        <v>51473</v>
       </c>
       <c r="D101" s="2">
-        <v>1525</v>
+        <v>2317</v>
       </c>
       <c r="E101" s="4">
         <v>2017</v>
@@ -3616,16 +3851,16 @@
     </row>
     <row r="102" spans="1:10" ht="21">
       <c r="A102" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2">
-        <v>7571</v>
+        <v>11460</v>
       </c>
       <c r="C102" s="2">
-        <v>6305</v>
+        <v>9531</v>
       </c>
       <c r="D102" s="2">
-        <v>1267</v>
+        <v>1929</v>
       </c>
       <c r="E102" s="4">
         <v>2017</v>
@@ -3640,16 +3875,16 @@
     </row>
     <row r="103" spans="1:10" ht="21">
       <c r="A103" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2">
-        <v>237245</v>
+        <v>360047</v>
       </c>
       <c r="C103" s="2">
-        <v>45575</v>
+        <v>68889</v>
       </c>
       <c r="D103" s="2">
-        <v>191670</v>
+        <v>291157</v>
       </c>
       <c r="E103" s="4">
         <v>2017</v>
@@ -3664,16 +3899,16 @@
     </row>
     <row r="104" spans="1:10" ht="21">
       <c r="A104" s="5" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2">
-        <v>233056</v>
+        <v>354139</v>
       </c>
       <c r="C104" s="2">
-        <v>47832</v>
+        <v>72257</v>
       </c>
       <c r="D104" s="2">
-        <v>185224</v>
+        <v>281882</v>
       </c>
       <c r="E104" s="4">
         <v>2017</v>
@@ -3688,16 +3923,16 @@
     </row>
     <row r="105" spans="1:10" ht="21">
       <c r="A105" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2">
-        <v>46030</v>
+        <v>69719</v>
       </c>
       <c r="C105" s="2">
-        <v>27725</v>
+        <v>41899</v>
       </c>
       <c r="D105" s="2">
-        <v>18305</v>
+        <v>27820</v>
       </c>
       <c r="E105" s="4">
         <v>2017</v>
@@ -3712,16 +3947,16 @@
     </row>
     <row r="106" spans="1:10" ht="21">
       <c r="A106" s="5" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2">
-        <v>4732</v>
+        <v>7153</v>
       </c>
       <c r="C106" s="2">
-        <v>4238</v>
+        <v>6408</v>
       </c>
       <c r="D106" s="3">
-        <v>494</v>
+        <v>745</v>
       </c>
       <c r="E106" s="4">
         <v>2017</v>
@@ -3736,16 +3971,16 @@
     </row>
     <row r="107" spans="1:10" ht="21">
       <c r="A107" s="5" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B107" s="3">
-        <v>467</v>
+        <v>706</v>
       </c>
       <c r="C107" s="3">
-        <v>467</v>
+        <v>706</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" s="4">
         <v>2017</v>
@@ -3760,16 +3995,16 @@
     </row>
     <row r="108" spans="1:10" ht="21">
       <c r="A108" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2">
-        <v>2006</v>
+        <v>3036</v>
       </c>
       <c r="C108" s="2">
-        <v>1916</v>
+        <v>2899</v>
       </c>
       <c r="D108" s="3">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="E108" s="4">
         <v>2017</v>
@@ -3784,16 +4019,16 @@
     </row>
     <row r="109" spans="1:10" ht="21">
       <c r="A109" s="5" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2">
-        <v>3230</v>
+        <v>4869</v>
       </c>
       <c r="C109" s="2">
-        <v>3230</v>
+        <v>4869</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E109" s="4">
         <v>2017</v>
@@ -3808,13 +4043,13 @@
     </row>
     <row r="110" spans="1:10" ht="21">
       <c r="A110" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2">
-        <v>2061</v>
+        <v>3118</v>
       </c>
       <c r="C110" s="2">
-        <v>2061</v>
+        <v>3118</v>
       </c>
       <c r="D110" s="3">
         <v>0</v>
@@ -3832,16 +4067,16 @@
     </row>
     <row r="111" spans="1:10" ht="21">
       <c r="A111" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2">
-        <v>118937</v>
+        <v>180515</v>
       </c>
       <c r="C111" s="2">
-        <v>3221</v>
+        <v>4853</v>
       </c>
       <c r="D111" s="2">
-        <v>115717</v>
+        <v>175662</v>
       </c>
       <c r="E111" s="4">
         <v>2017</v>
@@ -3856,16 +4091,16 @@
     </row>
     <row r="112" spans="1:10" ht="21">
       <c r="A112" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C112" s="3">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E112" s="4">
         <v>2017</v>
@@ -3880,16 +4115,16 @@
     </row>
     <row r="113" spans="1:10" ht="21">
       <c r="A113" s="5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2">
-        <v>1119465</v>
+        <v>1692579</v>
       </c>
       <c r="C113" s="2">
-        <v>745593</v>
+        <v>1127385</v>
       </c>
       <c r="D113" s="2">
-        <v>373872</v>
+        <v>565194</v>
       </c>
       <c r="E113" s="4">
         <v>2017</v>
@@ -3904,16 +4139,16 @@
     </row>
     <row r="114" spans="1:10" ht="21">
       <c r="A114" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2">
-        <v>561730</v>
+        <v>849411</v>
       </c>
       <c r="C114" s="2">
-        <v>318183</v>
+        <v>481563</v>
       </c>
       <c r="D114" s="2">
-        <v>243546</v>
+        <v>367848</v>
       </c>
       <c r="E114" s="4">
         <v>2017</v>
@@ -3928,16 +4163,16 @@
     </row>
     <row r="115" spans="1:10" ht="21">
       <c r="A115" s="5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2">
-        <v>4203275</v>
+        <v>6362442</v>
       </c>
       <c r="C115" s="2">
-        <v>3133953</v>
+        <v>4741763</v>
       </c>
       <c r="D115" s="2">
-        <v>1069322</v>
+        <v>1620679</v>
       </c>
       <c r="E115" s="4">
         <v>2017</v>
@@ -3952,16 +4187,16 @@
     </row>
     <row r="116" spans="1:10" ht="21">
       <c r="A116" s="5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2">
-        <v>9254738</v>
+        <v>13966533</v>
       </c>
       <c r="C116" s="2">
-        <v>3931906</v>
+        <v>5946868</v>
       </c>
       <c r="D116" s="2">
-        <v>5322832</v>
+        <v>8019665</v>
       </c>
       <c r="E116" s="4">
         <v>2017</v>
@@ -3976,16 +4211,16 @@
     </row>
     <row r="117" spans="1:10" ht="21">
       <c r="A117" s="5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2">
-        <v>2777254</v>
+        <v>4195739</v>
       </c>
       <c r="C117" s="2">
-        <v>1365790</v>
+        <v>2065471</v>
       </c>
       <c r="D117" s="2">
-        <v>1411464</v>
+        <v>2130268</v>
       </c>
       <c r="E117" s="4">
         <v>2017</v>
@@ -4000,16 +4235,16 @@
     </row>
     <row r="118" spans="1:10" ht="21">
       <c r="A118" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2">
-        <v>506267</v>
+        <v>767996</v>
       </c>
       <c r="C118" s="2">
-        <v>148293</v>
+        <v>224388</v>
       </c>
       <c r="D118" s="2">
-        <v>357974</v>
+        <v>543608</v>
       </c>
       <c r="E118" s="4">
         <v>2017</v>
@@ -4024,16 +4259,16 @@
     </row>
     <row r="119" spans="1:10" ht="21">
       <c r="A119" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2">
-        <v>2434343</v>
+        <v>3675994</v>
       </c>
       <c r="C119" s="2">
-        <v>1465563</v>
+        <v>2216327</v>
       </c>
       <c r="D119" s="2">
-        <v>968780</v>
+        <v>1459667</v>
       </c>
       <c r="E119" s="4">
         <v>2017</v>
@@ -4048,16 +4283,16 @@
     </row>
     <row r="120" spans="1:10" ht="21">
       <c r="A120" s="5" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2">
-        <v>62825</v>
+        <v>95279</v>
       </c>
       <c r="C120" s="2">
-        <v>47487</v>
+        <v>72028</v>
       </c>
       <c r="D120" s="2">
-        <v>15338</v>
+        <v>23250</v>
       </c>
       <c r="E120" s="4">
         <v>2017</v>
@@ -4072,16 +4307,16 @@
     </row>
     <row r="121" spans="1:10" ht="21">
       <c r="A121" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2">
-        <v>4609049</v>
+        <v>6978491</v>
       </c>
       <c r="C121" s="2">
-        <v>4104698</v>
+        <v>6217272</v>
       </c>
       <c r="D121" s="2">
-        <v>504351</v>
+        <v>761219</v>
       </c>
       <c r="E121" s="4">
         <v>2017</v>
@@ -4096,16 +4331,16 @@
     </row>
     <row r="122" spans="1:10" ht="21">
       <c r="A122" s="5" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2">
-        <v>265563</v>
+        <v>401356</v>
       </c>
       <c r="C122" s="2">
-        <v>241982</v>
+        <v>365788</v>
       </c>
       <c r="D122" s="2">
-        <v>23580</v>
+        <v>35568</v>
       </c>
       <c r="E122" s="4">
         <v>2017</v>
@@ -4120,16 +4355,16 @@
     </row>
     <row r="123" spans="1:10" ht="21">
       <c r="A123" s="5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2">
-        <v>281125</v>
+        <v>425080</v>
       </c>
       <c r="C123" s="2">
-        <v>171700</v>
+        <v>259935</v>
       </c>
       <c r="D123" s="2">
-        <v>109425</v>
+        <v>165145</v>
       </c>
       <c r="E123" s="4">
         <v>2017</v>
@@ -4144,16 +4379,16 @@
     </row>
     <row r="124" spans="1:10" ht="21">
       <c r="A124" s="5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2">
-        <v>1518691</v>
+        <v>2295685</v>
       </c>
       <c r="C124" s="2">
-        <v>1175724</v>
+        <v>1778101</v>
       </c>
       <c r="D124" s="2">
-        <v>342967</v>
+        <v>517584</v>
       </c>
       <c r="E124" s="4">
         <v>2017</v>
@@ -4168,16 +4403,16 @@
     </row>
     <row r="125" spans="1:10" ht="21">
       <c r="A125" s="5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2">
-        <v>39193</v>
+        <v>59400</v>
       </c>
       <c r="C125" s="2">
-        <v>27793</v>
+        <v>42044</v>
       </c>
       <c r="D125" s="2">
-        <v>11400</v>
+        <v>17356</v>
       </c>
       <c r="E125" s="4">
         <v>2017</v>
@@ -4192,16 +4427,16 @@
     </row>
     <row r="126" spans="1:10" ht="21">
       <c r="A126" s="5" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="B126" s="3">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C126" s="3">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D126" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126" s="4">
         <v>2017</v>
@@ -4216,16 +4451,16 @@
     </row>
     <row r="127" spans="1:10" ht="21">
       <c r="A127" s="5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2">
-        <v>439919</v>
+        <v>662902</v>
       </c>
       <c r="C127" s="2">
-        <v>126573</v>
+        <v>191387</v>
       </c>
       <c r="D127" s="2">
-        <v>313346</v>
+        <v>471515</v>
       </c>
       <c r="E127" s="4">
         <v>2017</v>
@@ -4240,16 +4475,16 @@
     </row>
     <row r="128" spans="1:10" ht="21">
       <c r="A128" s="5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2">
-        <v>110032</v>
+        <v>166590</v>
       </c>
       <c r="C128" s="2">
-        <v>68689</v>
+        <v>103833</v>
       </c>
       <c r="D128" s="2">
-        <v>41343</v>
+        <v>62757</v>
       </c>
       <c r="E128" s="4">
         <v>2017</v>
@@ -4264,16 +4499,16 @@
     </row>
     <row r="129" spans="1:10" ht="21">
       <c r="A129" s="5" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2">
-        <v>357707</v>
+        <v>540977</v>
       </c>
       <c r="C129" s="2">
-        <v>132777</v>
+        <v>200724</v>
       </c>
       <c r="D129" s="2">
-        <v>224930</v>
+        <v>340253</v>
       </c>
       <c r="E129" s="4">
         <v>2017</v>
@@ -4288,13 +4523,13 @@
     </row>
     <row r="130" spans="1:10" ht="21">
       <c r="A130" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C130" s="3">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D130" s="3">
         <v>0</v>
@@ -4312,16 +4547,16 @@
     </row>
     <row r="131" spans="1:10" ht="21">
       <c r="A131" s="5" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2">
-        <v>562737</v>
+        <v>850470</v>
       </c>
       <c r="C131" s="2">
-        <v>307875</v>
+        <v>466470</v>
       </c>
       <c r="D131" s="2">
-        <v>254862</v>
+        <v>384000</v>
       </c>
       <c r="E131" s="4">
         <v>2017</v>
@@ -4336,16 +4571,16 @@
     </row>
     <row r="132" spans="1:10" ht="21">
       <c r="A132" s="5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2">
-        <v>15567</v>
+        <v>23639</v>
       </c>
       <c r="C132" s="2">
-        <v>6867</v>
+        <v>10428</v>
       </c>
       <c r="D132" s="2">
-        <v>8700</v>
+        <v>13211</v>
       </c>
       <c r="E132" s="4">
         <v>2017</v>
@@ -4360,16 +4595,16 @@
     </row>
     <row r="133" spans="1:10" ht="21">
       <c r="A133" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2">
-        <v>8355</v>
+        <v>12652</v>
       </c>
       <c r="C133" s="2">
-        <v>2317</v>
+        <v>3509</v>
       </c>
       <c r="D133" s="2">
-        <v>6038</v>
+        <v>9142</v>
       </c>
       <c r="E133" s="4">
         <v>2017</v>
@@ -4384,16 +4619,16 @@
     </row>
     <row r="134" spans="1:10" ht="21">
       <c r="A134" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2">
-        <v>102178</v>
+        <v>153816</v>
       </c>
       <c r="C134" s="2">
-        <v>81563</v>
+        <v>122549</v>
       </c>
       <c r="D134" s="2">
-        <v>20615</v>
+        <v>31267</v>
       </c>
       <c r="E134" s="4">
         <v>2017</v>
@@ -4408,16 +4643,16 @@
     </row>
     <row r="135" spans="1:10" ht="21">
       <c r="A135" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B135" s="3">
-        <v>815</v>
+        <v>139</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1234</v>
       </c>
       <c r="C135" s="3">
-        <v>595</v>
+        <v>904</v>
       </c>
       <c r="D135" s="3">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="E135" s="4">
         <v>2017</v>
@@ -4432,16 +4667,16 @@
     </row>
     <row r="136" spans="1:10" ht="21">
       <c r="A136" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2">
-        <v>266580</v>
+        <v>404330</v>
       </c>
       <c r="C136" s="2">
-        <v>105200</v>
+        <v>159165</v>
       </c>
       <c r="D136" s="2">
-        <v>161380</v>
+        <v>245165</v>
       </c>
       <c r="E136" s="4">
         <v>2017</v>
@@ -4456,16 +4691,16 @@
     </row>
     <row r="137" spans="1:10" ht="21">
       <c r="A137" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B137" s="2">
-        <v>1192088</v>
+        <v>1802558</v>
       </c>
       <c r="C137" s="2">
-        <v>985312</v>
+        <v>1490274</v>
       </c>
       <c r="D137" s="2">
-        <v>206776</v>
+        <v>312285</v>
       </c>
       <c r="E137" s="4">
         <v>2017</v>
@@ -4480,16 +4715,16 @@
     </row>
     <row r="138" spans="1:10" ht="21">
       <c r="A138" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2">
-        <v>291201</v>
+        <v>439816</v>
       </c>
       <c r="C138" s="2">
-        <v>201922</v>
+        <v>305264</v>
       </c>
       <c r="D138" s="2">
-        <v>89278</v>
+        <v>134553</v>
       </c>
       <c r="E138" s="4">
         <v>2017</v>
@@ -4504,16 +4739,16 @@
     </row>
     <row r="139" spans="1:10" ht="21">
       <c r="A139" s="5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B139" s="3">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="C139" s="3">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="D139" s="3">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E139" s="4">
         <v>2017</v>
@@ -4528,16 +4763,16 @@
     </row>
     <row r="140" spans="1:10" ht="21">
       <c r="A140" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2">
-        <v>774732</v>
+        <v>1170782</v>
       </c>
       <c r="C140" s="2">
-        <v>348793</v>
+        <v>527600</v>
       </c>
       <c r="D140" s="2">
-        <v>425939</v>
+        <v>643182</v>
       </c>
       <c r="E140" s="4">
         <v>2017</v>
@@ -4552,16 +4787,16 @@
     </row>
     <row r="141" spans="1:10" ht="21">
       <c r="A141" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2">
-        <v>1981300</v>
+        <v>3010357</v>
       </c>
       <c r="C141" s="2">
-        <v>151891</v>
+        <v>229870</v>
       </c>
       <c r="D141" s="2">
-        <v>1829408</v>
+        <v>2780487</v>
       </c>
       <c r="E141" s="4">
         <v>2017</v>
@@ -4576,16 +4811,16 @@
     </row>
     <row r="142" spans="1:10" ht="21">
       <c r="A142" s="5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2">
-        <v>61319</v>
+        <v>92629</v>
       </c>
       <c r="C142" s="2">
-        <v>44714</v>
+        <v>67597</v>
       </c>
       <c r="D142" s="2">
-        <v>16606</v>
+        <v>25032</v>
       </c>
       <c r="E142" s="4">
         <v>2017</v>
@@ -4600,16 +4835,16 @@
     </row>
     <row r="143" spans="1:10" ht="21">
       <c r="A143" s="5" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2">
-        <v>73076</v>
+        <v>110372</v>
       </c>
       <c r="C143" s="2">
-        <v>64564</v>
+        <v>97562</v>
       </c>
       <c r="D143" s="2">
-        <v>8511</v>
+        <v>12810</v>
       </c>
       <c r="E143" s="4">
         <v>2017</v>
@@ -4624,16 +4859,16 @@
     </row>
     <row r="144" spans="1:10" ht="21">
       <c r="A144" s="5" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2">
-        <v>107032</v>
+        <v>161830</v>
       </c>
       <c r="C144" s="2">
-        <v>89496</v>
+        <v>135290</v>
       </c>
       <c r="D144" s="2">
-        <v>17536</v>
+        <v>26540</v>
       </c>
       <c r="E144" s="4">
         <v>2017</v>
@@ -4648,16 +4883,16 @@
     </row>
     <row r="145" spans="1:10" ht="21">
       <c r="A145" s="5" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2">
-        <v>60914</v>
+        <v>92237</v>
       </c>
       <c r="C145" s="2">
-        <v>59256</v>
+        <v>89722</v>
       </c>
       <c r="D145" s="2">
-        <v>1658</v>
+        <v>2515</v>
       </c>
       <c r="E145" s="4">
         <v>2017</v>
@@ -4672,16 +4907,16 @@
     </row>
     <row r="146" spans="1:10" ht="21">
       <c r="A146" s="5" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2">
-        <v>37359</v>
+        <v>56813</v>
       </c>
       <c r="C146" s="2">
-        <v>7572</v>
+        <v>11468</v>
       </c>
       <c r="D146" s="2">
-        <v>29788</v>
+        <v>45345</v>
       </c>
       <c r="E146" s="4">
         <v>2017</v>
@@ -4696,16 +4931,16 @@
     </row>
     <row r="147" spans="1:10" ht="21">
       <c r="A147" s="5" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2">
-        <v>23438</v>
+        <v>35519</v>
       </c>
       <c r="C147" s="2">
-        <v>22778</v>
-      </c>
-      <c r="D147" s="3">
-        <v>660</v>
+        <v>34513</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1006</v>
       </c>
       <c r="E147" s="4">
         <v>2017</v>
@@ -4720,16 +4955,16 @@
     </row>
     <row r="148" spans="1:10" ht="21">
       <c r="A148" s="5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2">
-        <v>99436</v>
+        <v>150453</v>
       </c>
       <c r="C148" s="2">
-        <v>73503</v>
+        <v>111067</v>
       </c>
       <c r="D148" s="2">
-        <v>25934</v>
+        <v>39386</v>
       </c>
       <c r="E148" s="4">
         <v>2017</v>
@@ -4744,16 +4979,16 @@
     </row>
     <row r="149" spans="1:10" ht="21">
       <c r="A149" s="5" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2">
-        <v>7560</v>
+        <v>11438</v>
       </c>
       <c r="C149" s="2">
-        <v>5731</v>
+        <v>8675</v>
       </c>
       <c r="D149" s="2">
-        <v>1830</v>
+        <v>2763</v>
       </c>
       <c r="E149" s="4">
         <v>2017</v>
@@ -4768,16 +5003,16 @@
     </row>
     <row r="150" spans="1:10" ht="21">
       <c r="A150" s="5" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2">
-        <v>4383525</v>
+        <v>6643832</v>
       </c>
       <c r="C150" s="2">
-        <v>2329031</v>
+        <v>3527900</v>
       </c>
       <c r="D150" s="2">
-        <v>2054494</v>
+        <v>3115931</v>
       </c>
       <c r="E150" s="4">
         <v>2017</v>
@@ -4792,16 +5027,16 @@
     </row>
     <row r="151" spans="1:10" ht="21">
       <c r="A151" s="5" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2">
-        <v>363242</v>
+        <v>550138</v>
       </c>
       <c r="C151" s="2">
-        <v>274914</v>
+        <v>416035</v>
       </c>
       <c r="D151" s="2">
-        <v>88328</v>
+        <v>134104</v>
       </c>
       <c r="E151" s="4">
         <v>2017</v>
@@ -4816,16 +5051,16 @@
     </row>
     <row r="152" spans="1:10" ht="21">
       <c r="A152" s="5" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2">
-        <v>163495</v>
+        <v>247177</v>
       </c>
       <c r="C152" s="2">
-        <v>134842</v>
+        <v>203967</v>
       </c>
       <c r="D152" s="2">
-        <v>28652</v>
+        <v>43210</v>
       </c>
       <c r="E152" s="4">
         <v>2017</v>
@@ -4840,16 +5075,16 @@
     </row>
     <row r="153" spans="1:10" ht="21">
       <c r="A153" s="5" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2">
-        <v>68266</v>
+        <v>103271</v>
       </c>
       <c r="C153" s="2">
-        <v>56475</v>
+        <v>85475</v>
       </c>
       <c r="D153" s="2">
-        <v>11791</v>
+        <v>17796</v>
       </c>
       <c r="E153" s="4">
         <v>2017</v>
@@ -4864,16 +5099,16 @@
     </row>
     <row r="154" spans="1:10" ht="21">
       <c r="A154" s="5" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2">
-        <v>727544</v>
+        <v>1099967</v>
       </c>
       <c r="C154" s="2">
-        <v>521029</v>
+        <v>788993</v>
       </c>
       <c r="D154" s="2">
-        <v>206515</v>
+        <v>310974</v>
       </c>
       <c r="E154" s="4">
         <v>2017</v>
@@ -4888,16 +5123,16 @@
     </row>
     <row r="155" spans="1:10" ht="21">
       <c r="A155" s="5" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2">
-        <v>327628</v>
+        <v>494853</v>
       </c>
       <c r="C155" s="2">
-        <v>171016</v>
+        <v>258444</v>
       </c>
       <c r="D155" s="2">
-        <v>156611</v>
+        <v>236409</v>
       </c>
       <c r="E155" s="4">
         <v>2017</v>
@@ -4912,16 +5147,16 @@
     </row>
     <row r="156" spans="1:10" ht="21">
       <c r="A156" s="5" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2">
-        <v>9129</v>
+        <v>13807</v>
       </c>
       <c r="C156" s="2">
-        <v>5088</v>
+        <v>7694</v>
       </c>
       <c r="D156" s="2">
-        <v>4041</v>
+        <v>6113</v>
       </c>
       <c r="E156" s="4">
         <v>2017</v>
@@ -4936,16 +5171,16 @@
     </row>
     <row r="157" spans="1:10" ht="21">
       <c r="A157" s="5" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2">
-        <v>8361</v>
+        <v>12624</v>
       </c>
       <c r="C157" s="2">
-        <v>4672</v>
+        <v>7078</v>
       </c>
       <c r="D157" s="2">
-        <v>3689</v>
+        <v>5546</v>
       </c>
       <c r="E157" s="4">
         <v>2017</v>
@@ -4960,16 +5195,16 @@
     </row>
     <row r="158" spans="1:10" ht="21">
       <c r="A158" s="5" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B158" s="3">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C158" s="3">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E158" s="4">
         <v>2017</v>
@@ -4984,16 +5219,16 @@
     </row>
     <row r="159" spans="1:10" ht="21">
       <c r="A159" s="5" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B159" s="2">
-        <v>6322</v>
+        <v>9614</v>
       </c>
       <c r="C159" s="3">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D159" s="2">
-        <v>6205</v>
+        <v>9437</v>
       </c>
       <c r="E159" s="4">
         <v>2017</v>
@@ -5008,16 +5243,16 @@
     </row>
     <row r="160" spans="1:10" ht="21">
       <c r="A160" s="5" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2">
-        <v>44118</v>
+        <v>66748</v>
       </c>
       <c r="C160" s="2">
-        <v>31830</v>
+        <v>48168</v>
       </c>
       <c r="D160" s="2">
-        <v>12288</v>
+        <v>18580</v>
       </c>
       <c r="E160" s="4">
         <v>2017</v>
@@ -5032,16 +5267,16 @@
     </row>
     <row r="161" spans="1:10" ht="21">
       <c r="A161" s="5" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B161" s="2">
-        <v>9697</v>
+        <v>14721</v>
       </c>
       <c r="C161" s="2">
-        <v>5336</v>
+        <v>8087</v>
       </c>
       <c r="D161" s="2">
-        <v>4361</v>
+        <v>6634</v>
       </c>
       <c r="E161" s="4">
         <v>2017</v>
@@ -5056,16 +5291,16 @@
     </row>
     <row r="162" spans="1:10" ht="21">
       <c r="A162" s="5" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="B162" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C162" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E162" s="4">
         <v>2017</v>
@@ -5080,16 +5315,16 @@
     </row>
     <row r="163" spans="1:10" ht="21">
       <c r="A163" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B163" s="2">
-        <v>13069953</v>
+        <v>19805578</v>
       </c>
       <c r="C163" s="2">
-        <v>7073472</v>
+        <v>10698303</v>
       </c>
       <c r="D163" s="2">
-        <v>5996482</v>
+        <v>9107275</v>
       </c>
       <c r="E163" s="4">
         <v>2017</v>
@@ -5104,13 +5339,13 @@
     </row>
     <row r="164" spans="1:10" ht="21">
       <c r="A164" s="5" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B164" s="2">
-        <v>2379</v>
+        <v>3601</v>
       </c>
       <c r="C164" s="2">
-        <v>2379</v>
+        <v>3601</v>
       </c>
       <c r="D164" s="3">
         <v>0</v>
@@ -5128,16 +5363,16 @@
     </row>
     <row r="165" spans="1:10" ht="21">
       <c r="A165" s="5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B165" s="2">
-        <v>827108</v>
+        <v>1252762</v>
       </c>
       <c r="C165" s="2">
-        <v>511480</v>
+        <v>772918</v>
       </c>
       <c r="D165" s="2">
-        <v>315628</v>
+        <v>479844</v>
       </c>
       <c r="E165" s="4">
         <v>2017</v>
@@ -5152,13 +5387,13 @@
     </row>
     <row r="166" spans="1:10" ht="21">
       <c r="A166" s="5" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B166" s="2">
-        <v>1144</v>
+        <v>1726</v>
       </c>
       <c r="C166" s="2">
-        <v>1143</v>
+        <v>1726</v>
       </c>
       <c r="D166" s="3">
         <v>0</v>
@@ -5176,16 +5411,16 @@
     </row>
     <row r="167" spans="1:10" ht="21">
       <c r="A167" s="5" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B167" s="2">
-        <v>9499</v>
+        <v>14380</v>
       </c>
       <c r="C167" s="2">
-        <v>6674</v>
+        <v>10079</v>
       </c>
       <c r="D167" s="2">
-        <v>2825</v>
+        <v>4301</v>
       </c>
       <c r="E167" s="4">
         <v>2017</v>
@@ -5200,16 +5435,16 @@
     </row>
     <row r="168" spans="1:10" ht="21">
       <c r="A168" s="5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B168" s="2">
-        <v>14477</v>
+        <v>21997</v>
       </c>
       <c r="C168" s="2">
-        <v>13205</v>
+        <v>20061</v>
       </c>
       <c r="D168" s="2">
-        <v>1272</v>
+        <v>1936</v>
       </c>
       <c r="E168" s="4">
         <v>2017</v>
@@ -5224,16 +5459,16 @@
     </row>
     <row r="169" spans="1:10" ht="21">
       <c r="A169" s="5" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B169" s="2">
-        <v>5678</v>
+        <v>8570</v>
       </c>
       <c r="C169" s="2">
-        <v>5610</v>
+        <v>8466</v>
       </c>
       <c r="D169" s="3">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E169" s="4">
         <v>2017</v>
@@ -5248,16 +5483,16 @@
     </row>
     <row r="170" spans="1:10" ht="21">
       <c r="A170" s="5" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B170" s="2">
-        <v>58781</v>
+        <v>89105</v>
       </c>
       <c r="C170" s="2">
-        <v>36301</v>
+        <v>54879</v>
       </c>
       <c r="D170" s="2">
-        <v>22480</v>
+        <v>34226</v>
       </c>
       <c r="E170" s="4">
         <v>2017</v>
@@ -5272,16 +5507,16 @@
     </row>
     <row r="171" spans="1:10" ht="21">
       <c r="A171" s="5" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B171" s="3">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C171" s="3">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="4">
         <v>2017</v>
@@ -5296,16 +5531,16 @@
     </row>
     <row r="172" spans="1:10" ht="21">
       <c r="A172" s="5" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B172" s="2">
-        <v>4151927</v>
+        <v>6296225</v>
       </c>
       <c r="C172" s="2">
-        <v>1574512</v>
+        <v>2380796</v>
       </c>
       <c r="D172" s="2">
-        <v>2577415</v>
+        <v>3915429</v>
       </c>
       <c r="E172" s="4">
         <v>2017</v>
@@ -5320,13 +5555,13 @@
     </row>
     <row r="173" spans="1:10" ht="21">
       <c r="A173" s="5" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>212</v>
+        <v>318</v>
       </c>
       <c r="C173" s="3">
-        <v>212</v>
+        <v>318</v>
       </c>
       <c r="D173" s="3">
         <v>0</v>
@@ -5344,16 +5579,16 @@
     </row>
     <row r="174" spans="1:10" ht="21">
       <c r="A174" s="5" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B174" s="2">
-        <v>1793008</v>
+        <v>2718251</v>
       </c>
       <c r="C174" s="2">
-        <v>741499</v>
+        <v>1121935</v>
       </c>
       <c r="D174" s="2">
-        <v>1051509</v>
+        <v>1596317</v>
       </c>
       <c r="E174" s="4">
         <v>2017</v>
@@ -5368,16 +5603,16 @@
     </row>
     <row r="175" spans="1:10" ht="21">
       <c r="A175" s="5" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B175" s="2">
-        <v>583439</v>
+        <v>884612</v>
       </c>
       <c r="C175" s="2">
-        <v>410453</v>
+        <v>621266</v>
       </c>
       <c r="D175" s="2">
-        <v>172986</v>
+        <v>263346</v>
       </c>
       <c r="E175" s="4">
         <v>2017</v>
@@ -5392,16 +5627,16 @@
     </row>
     <row r="176" spans="1:10" ht="21">
       <c r="A176" s="5" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B176" s="2">
-        <v>1537</v>
+        <v>2324</v>
       </c>
       <c r="C176" s="2">
-        <v>1531</v>
+        <v>2316</v>
       </c>
       <c r="D176" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E176" s="4">
         <v>2017</v>
@@ -5416,16 +5651,16 @@
     </row>
     <row r="177" spans="1:10" ht="21">
       <c r="A177" s="5" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B177" s="2">
-        <v>126009</v>
+        <v>190704</v>
       </c>
       <c r="C177" s="2">
-        <v>79962</v>
+        <v>120926</v>
       </c>
       <c r="D177" s="2">
-        <v>46047</v>
+        <v>69778</v>
       </c>
       <c r="E177" s="4">
         <v>2017</v>
@@ -5440,16 +5675,16 @@
     </row>
     <row r="178" spans="1:10" ht="21">
       <c r="A178" s="5" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2">
-        <v>105585</v>
+        <v>158657</v>
       </c>
       <c r="C178" s="2">
-        <v>91469</v>
+        <v>137521</v>
       </c>
       <c r="D178" s="2">
-        <v>14116</v>
+        <v>21136</v>
       </c>
       <c r="E178" s="4">
         <v>2017</v>
@@ -5464,13 +5699,13 @@
     </row>
     <row r="179" spans="1:10" ht="21">
       <c r="A179" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B179" s="3">
-        <v>954</v>
-      </c>
-      <c r="C179" s="3">
-        <v>954</v>
+        <v>183</v>
+      </c>
+      <c r="B179" s="2">
+        <v>1443</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1442</v>
       </c>
       <c r="D179" s="3">
         <v>0</v>
@@ -5488,16 +5723,16 @@
     </row>
     <row r="180" spans="1:10" ht="21">
       <c r="A180" s="5" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="B180" s="2">
-        <v>100997</v>
+        <v>152837</v>
       </c>
       <c r="C180" s="2">
-        <v>92886</v>
+        <v>140555</v>
       </c>
       <c r="D180" s="2">
-        <v>8111</v>
+        <v>12282</v>
       </c>
       <c r="E180" s="4">
         <v>2017</v>
@@ -5512,16 +5747,16 @@
     </row>
     <row r="181" spans="1:10" ht="21">
       <c r="A181" s="5" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B181" s="2">
-        <v>263614</v>
+        <v>399239</v>
       </c>
       <c r="C181" s="2">
-        <v>175527</v>
+        <v>265119</v>
       </c>
       <c r="D181" s="2">
-        <v>88087</v>
+        <v>134120</v>
       </c>
       <c r="E181" s="4">
         <v>2017</v>
@@ -5536,16 +5771,16 @@
     </row>
     <row r="182" spans="1:10" ht="21">
       <c r="A182" s="5" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B182" s="3">
-        <v>514</v>
+        <v>779</v>
       </c>
       <c r="C182" s="3">
-        <v>484</v>
+        <v>734</v>
       </c>
       <c r="D182" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E182" s="4">
         <v>2017</v>
@@ -5560,16 +5795,16 @@
     </row>
     <row r="183" spans="1:10" ht="21">
       <c r="A183" s="5" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B183" s="3">
-        <v>519</v>
+        <v>787</v>
       </c>
       <c r="C183" s="3">
-        <v>514</v>
+        <v>779</v>
       </c>
       <c r="D183" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E183" s="4">
         <v>2017</v>
@@ -5584,13 +5819,13 @@
     </row>
     <row r="184" spans="1:10" ht="21">
       <c r="A184" s="5" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B184" s="2">
-        <v>1238</v>
+        <v>1869</v>
       </c>
       <c r="C184" s="2">
-        <v>1237</v>
+        <v>1868</v>
       </c>
       <c r="D184" s="3">
         <v>1</v>
@@ -5608,16 +5843,16 @@
     </row>
     <row r="185" spans="1:10" ht="21">
       <c r="A185" s="5" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B185" s="2">
-        <v>117442</v>
+        <v>177741</v>
       </c>
       <c r="C185" s="2">
-        <v>113343</v>
+        <v>171505</v>
       </c>
       <c r="D185" s="2">
-        <v>4100</v>
+        <v>6236</v>
       </c>
       <c r="E185" s="4">
         <v>2017</v>
@@ -5632,16 +5867,16 @@
     </row>
     <row r="186" spans="1:10" ht="21">
       <c r="A186" s="5" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B186" s="2">
-        <v>12481</v>
+        <v>18905</v>
       </c>
       <c r="C186" s="2">
-        <v>10535</v>
+        <v>15942</v>
       </c>
       <c r="D186" s="2">
-        <v>1945</v>
+        <v>2962</v>
       </c>
       <c r="E186" s="4">
         <v>2017</v>
@@ -5656,16 +5891,16 @@
     </row>
     <row r="187" spans="1:10" ht="21">
       <c r="A187" s="5" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B187" s="2">
-        <v>28324</v>
+        <v>42817</v>
       </c>
       <c r="C187" s="2">
-        <v>28122</v>
+        <v>42510</v>
       </c>
       <c r="D187" s="3">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="E187" s="4">
         <v>2017</v>
@@ -5680,16 +5915,16 @@
     </row>
     <row r="188" spans="1:10" ht="21">
       <c r="A188" s="5" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B188" s="2">
-        <v>55334</v>
+        <v>83580</v>
       </c>
       <c r="C188" s="2">
-        <v>54400</v>
-      </c>
-      <c r="D188" s="3">
-        <v>934</v>
+        <v>82163</v>
+      </c>
+      <c r="D188" s="2">
+        <v>1418</v>
       </c>
       <c r="E188" s="4">
         <v>2017</v>
@@ -5704,16 +5939,16 @@
     </row>
     <row r="189" spans="1:10" ht="21">
       <c r="A189" s="5" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2">
-        <v>32747</v>
+        <v>49605</v>
       </c>
       <c r="C189" s="2">
-        <v>31357</v>
+        <v>47489</v>
       </c>
       <c r="D189" s="2">
-        <v>1389</v>
+        <v>2116</v>
       </c>
       <c r="E189" s="4">
         <v>2017</v>
@@ -5728,13 +5963,13 @@
     </row>
     <row r="190" spans="1:10" ht="21">
       <c r="A190" s="5" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B190" s="2">
-        <v>1013</v>
+        <v>1532</v>
       </c>
       <c r="C190" s="2">
-        <v>1013</v>
+        <v>1531</v>
       </c>
       <c r="D190" s="3">
         <v>0</v>
@@ -5752,16 +5987,16 @@
     </row>
     <row r="191" spans="1:10" ht="21">
       <c r="A191" s="5" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B191" s="2">
-        <v>2646158</v>
+        <v>4007297</v>
       </c>
       <c r="C191" s="2">
-        <v>1999018</v>
+        <v>3025142</v>
       </c>
       <c r="D191" s="2">
-        <v>647140</v>
+        <v>982155</v>
       </c>
       <c r="E191" s="4">
         <v>2017</v>
@@ -5776,13 +6011,13 @@
     </row>
     <row r="192" spans="1:10" ht="21">
       <c r="A192" s="5" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B192" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C192" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D192" s="3">
         <v>0</v>
@@ -5800,16 +6035,16 @@
     </row>
     <row r="193" spans="1:10" ht="21">
       <c r="A193" s="5" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2">
-        <v>29963</v>
+        <v>45331</v>
       </c>
       <c r="C193" s="2">
-        <v>28886</v>
+        <v>43700</v>
       </c>
       <c r="D193" s="2">
-        <v>1077</v>
+        <v>1631</v>
       </c>
       <c r="E193" s="4">
         <v>2017</v>
@@ -5824,16 +6059,16 @@
     </row>
     <row r="194" spans="1:10" ht="21">
       <c r="A194" s="5" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2">
-        <v>295317</v>
+        <v>446432</v>
       </c>
       <c r="C194" s="2">
-        <v>292178</v>
+        <v>441654</v>
       </c>
       <c r="D194" s="2">
-        <v>3140</v>
+        <v>4778</v>
       </c>
       <c r="E194" s="4">
         <v>2017</v>
@@ -5848,16 +6083,16 @@
     </row>
     <row r="195" spans="1:10" ht="21">
       <c r="A195" s="5" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2">
-        <v>79535</v>
+        <v>120211</v>
       </c>
       <c r="C195" s="2">
-        <v>77664</v>
+        <v>117361</v>
       </c>
       <c r="D195" s="2">
-        <v>1871</v>
+        <v>2849</v>
       </c>
       <c r="E195" s="4">
         <v>2017</v>
@@ -5872,16 +6107,16 @@
     </row>
     <row r="196" spans="1:10" ht="21">
       <c r="A196" s="5" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B196" s="2">
-        <v>1024814</v>
+        <v>1554438</v>
       </c>
       <c r="C196" s="2">
-        <v>396120</v>
+        <v>599308</v>
       </c>
       <c r="D196" s="2">
-        <v>628694</v>
+        <v>955130</v>
       </c>
       <c r="E196" s="4">
         <v>2017</v>
@@ -5896,16 +6131,16 @@
     </row>
     <row r="197" spans="1:10" ht="21">
       <c r="A197" s="5" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="B197" s="2">
-        <v>41332</v>
+        <v>62530</v>
       </c>
       <c r="C197" s="2">
-        <v>27190</v>
+        <v>41145</v>
       </c>
       <c r="D197" s="2">
-        <v>14142</v>
+        <v>21385</v>
       </c>
       <c r="E197" s="4">
         <v>2017</v>
@@ -5920,16 +6155,16 @@
     </row>
     <row r="198" spans="1:10" ht="21">
       <c r="A198" s="5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="4">
         <v>2017</v>
@@ -5944,16 +6179,16 @@
     </row>
     <row r="199" spans="1:10" ht="21">
       <c r="A199" s="5" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B199" s="3">
-        <v>379</v>
+        <v>572</v>
       </c>
       <c r="C199" s="3">
-        <v>378</v>
+        <v>571</v>
       </c>
       <c r="D199" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E199" s="4">
         <v>2017</v>
@@ -5968,13 +6203,13 @@
     </row>
     <row r="200" spans="1:10" ht="21">
       <c r="A200" s="5" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B200" s="3">
-        <v>273</v>
+        <v>413</v>
       </c>
       <c r="C200" s="3">
-        <v>273</v>
+        <v>413</v>
       </c>
       <c r="D200" s="3">
         <v>0</v>
@@ -5992,16 +6227,16 @@
     </row>
     <row r="201" spans="1:10" ht="21">
       <c r="A201" s="5" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B201" s="3">
-        <v>460</v>
+        <v>691</v>
       </c>
       <c r="C201" s="3">
-        <v>424</v>
+        <v>638</v>
       </c>
       <c r="D201" s="3">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E201" s="4">
         <v>2017</v>
@@ -6016,16 +6251,16 @@
     </row>
     <row r="202" spans="1:10" ht="21">
       <c r="A202" s="5" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B202" s="2">
-        <v>57116</v>
+        <v>86420</v>
       </c>
       <c r="C202" s="2">
-        <v>42826</v>
+        <v>64689</v>
       </c>
       <c r="D202" s="2">
-        <v>14291</v>
+        <v>21732</v>
       </c>
       <c r="E202" s="4">
         <v>2017</v>
@@ -6040,16 +6275,16 @@
     </row>
     <row r="203" spans="1:10" ht="21">
       <c r="A203" s="5" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2">
-        <v>13813</v>
+        <v>20944</v>
       </c>
       <c r="C203" s="2">
-        <v>12643</v>
+        <v>19164</v>
       </c>
       <c r="D203" s="2">
-        <v>1170</v>
+        <v>1780</v>
       </c>
       <c r="E203" s="4">
         <v>2017</v>
@@ -6064,16 +6299,16 @@
     </row>
     <row r="204" spans="1:10" ht="21">
       <c r="A204" s="5" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B204" s="2">
-        <v>27553</v>
+        <v>41750</v>
       </c>
       <c r="C204" s="2">
-        <v>17690</v>
+        <v>26731</v>
       </c>
       <c r="D204" s="2">
-        <v>9863</v>
+        <v>15019</v>
       </c>
       <c r="E204" s="4">
         <v>2017</v>
@@ -6088,13 +6323,13 @@
     </row>
     <row r="205" spans="1:10" ht="21">
       <c r="A205" s="5" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B205" s="3">
-        <v>450</v>
+        <v>685</v>
       </c>
       <c r="C205" s="3">
-        <v>450</v>
+        <v>685</v>
       </c>
       <c r="D205" s="3">
         <v>0</v>
@@ -6112,16 +6347,16 @@
     </row>
     <row r="206" spans="1:10" ht="21">
       <c r="A206" s="5" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B206" s="2">
-        <v>258163</v>
+        <v>390742</v>
       </c>
       <c r="C206" s="2">
-        <v>119458</v>
+        <v>180430</v>
       </c>
       <c r="D206" s="2">
-        <v>138705</v>
+        <v>210311</v>
       </c>
       <c r="E206" s="4">
         <v>2017</v>
@@ -6136,16 +6371,16 @@
     </row>
     <row r="207" spans="1:10" ht="21">
       <c r="A207" s="5" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B207" s="2">
-        <v>294599</v>
+        <v>446593</v>
       </c>
       <c r="C207" s="2">
-        <v>67459</v>
+        <v>102151</v>
       </c>
       <c r="D207" s="2">
-        <v>227140</v>
+        <v>344441</v>
       </c>
       <c r="E207" s="4">
         <v>2017</v>
@@ -6160,13 +6395,13 @@
     </row>
     <row r="208" spans="1:10" ht="21">
       <c r="A208" s="5" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B208" s="2">
-        <v>1401</v>
+        <v>2132</v>
       </c>
       <c r="C208" s="2">
-        <v>1401</v>
+        <v>2132</v>
       </c>
       <c r="D208" s="3">
         <v>0</v>
@@ -6184,16 +6419,16 @@
     </row>
     <row r="209" spans="1:10" ht="21">
       <c r="A209" s="5" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B209" s="3">
-        <v>338</v>
+        <v>511</v>
       </c>
       <c r="C209" s="3">
-        <v>280</v>
+        <v>424</v>
       </c>
       <c r="D209" s="3">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E209" s="4">
         <v>2017</v>
@@ -6208,7 +6443,7 @@
     </row>
     <row r="210" spans="1:10" ht="21">
       <c r="A210" s="5" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -6217,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="4">
         <v>2017</v>
@@ -6232,16 +6467,16 @@
     </row>
     <row r="211" spans="1:10" ht="21">
       <c r="A211" s="5" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B211" s="2">
-        <v>2270</v>
+        <v>3432</v>
       </c>
       <c r="C211" s="2">
-        <v>2270</v>
+        <v>3432</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E211" s="4">
         <v>2017</v>
@@ -6256,13 +6491,13 @@
     </row>
     <row r="212" spans="1:10" ht="21">
       <c r="A212" s="5" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B212" s="3">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C212" s="3">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D212" s="3">
         <v>0</v>
@@ -6280,16 +6515,16 @@
     </row>
     <row r="213" spans="1:10" ht="21">
       <c r="A213" s="5" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B213" s="2">
-        <v>35117885</v>
+        <v>53215446</v>
       </c>
       <c r="C213" s="2">
-        <v>26774901</v>
+        <v>40542659</v>
       </c>
       <c r="D213" s="2">
-        <v>8342984</v>
+        <v>12672787</v>
       </c>
       <c r="E213" s="4">
         <v>2017</v>
@@ -6304,16 +6539,16 @@
     </row>
     <row r="214" spans="1:10" ht="21">
       <c r="A214" s="5" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B214" s="2">
-        <v>2846826</v>
+        <v>4314484</v>
       </c>
       <c r="C214" s="2">
-        <v>1841090</v>
+        <v>2786826</v>
       </c>
       <c r="D214" s="2">
-        <v>1005735</v>
+        <v>1527658</v>
       </c>
       <c r="E214" s="4">
         <v>2017</v>
@@ -6328,16 +6563,16 @@
     </row>
     <row r="215" spans="1:10" ht="21">
       <c r="A215" s="5" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B215" s="2">
-        <v>32263725</v>
+        <v>48889802</v>
       </c>
       <c r="C215" s="2">
-        <v>24932536</v>
+        <v>37753898</v>
       </c>
       <c r="D215" s="2">
-        <v>7331189</v>
+        <v>11135904</v>
       </c>
       <c r="E215" s="4">
         <v>2017</v>
@@ -6352,16 +6587,16 @@
     </row>
     <row r="216" spans="1:10" ht="21">
       <c r="A216" s="5" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B216" s="2">
-        <v>6086</v>
+        <v>9265</v>
       </c>
       <c r="C216" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D216" s="2">
-        <v>6059</v>
+        <v>9224</v>
       </c>
       <c r="E216" s="4">
         <v>2017</v>
@@ -6376,13 +6611,13 @@
     </row>
     <row r="217" spans="1:10" ht="21">
       <c r="A217" s="5" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="B217" s="2">
-        <v>1213</v>
+        <v>1841</v>
       </c>
       <c r="C217" s="2">
-        <v>1213</v>
+        <v>1841</v>
       </c>
       <c r="D217" s="3">
         <v>0</v>
@@ -6400,16 +6635,16 @@
     </row>
     <row r="218" spans="1:10" ht="21">
       <c r="A218" s="5" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B218" s="3">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C218" s="3">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="4">
         <v>2017</v>
@@ -6424,16 +6659,16 @@
     </row>
     <row r="219" spans="1:10" ht="21">
       <c r="A219" s="5" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B219" s="2">
-        <v>8888366</v>
+        <v>13485239</v>
       </c>
       <c r="C219" s="2">
-        <v>3024876</v>
+        <v>4575726</v>
       </c>
       <c r="D219" s="2">
-        <v>5863490</v>
+        <v>8909513</v>
       </c>
       <c r="E219" s="4">
         <v>2017</v>
@@ -6448,16 +6683,16 @@
     </row>
     <row r="220" spans="1:10" ht="21">
       <c r="A220" s="5" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B220" s="2">
-        <v>7796785</v>
+        <v>11830754</v>
       </c>
       <c r="C220" s="2">
-        <v>2525480</v>
+        <v>3820739</v>
       </c>
       <c r="D220" s="2">
-        <v>5271305</v>
+        <v>8010014</v>
       </c>
       <c r="E220" s="4">
         <v>2017</v>
@@ -6472,16 +6707,16 @@
     </row>
     <row r="221" spans="1:10" ht="21">
       <c r="A221" s="5" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B221" s="3">
-        <v>312</v>
+        <v>471</v>
       </c>
       <c r="C221" s="3">
-        <v>310</v>
+        <v>468</v>
       </c>
       <c r="D221" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E221" s="4">
         <v>2017</v>
@@ -6496,16 +6731,16 @@
     </row>
     <row r="222" spans="1:10" ht="21">
       <c r="A222" s="5" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B222" s="2">
-        <v>21593</v>
+        <v>32663</v>
       </c>
       <c r="C222" s="2">
-        <v>19644</v>
+        <v>29695</v>
       </c>
       <c r="D222" s="2">
-        <v>1950</v>
+        <v>2969</v>
       </c>
       <c r="E222" s="4">
         <v>2017</v>
@@ -6520,7 +6755,7 @@
     </row>
     <row r="223" spans="1:10" ht="21">
       <c r="A223" s="5" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
@@ -6529,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="4">
         <v>2017</v>
@@ -6544,16 +6779,16 @@
     </row>
     <row r="224" spans="1:10" ht="21">
       <c r="A224" s="5" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="4">
         <v>2017</v>
@@ -6568,16 +6803,16 @@
     </row>
     <row r="225" spans="1:10" ht="21">
       <c r="A225" s="5" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B225" s="3">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C225" s="3">
+        <v>21</v>
+      </c>
+      <c r="D225" s="3">
         <v>14</v>
-      </c>
-      <c r="D225" s="3">
-        <v>9</v>
       </c>
       <c r="E225" s="4">
         <v>2017</v>
@@ -6592,16 +6827,16 @@
     </row>
     <row r="226" spans="1:10" ht="21">
       <c r="A226" s="5" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B226" s="2">
-        <v>30736</v>
+        <v>46641</v>
       </c>
       <c r="C226" s="2">
-        <v>4147</v>
+        <v>6283</v>
       </c>
       <c r="D226" s="2">
-        <v>26588</v>
+        <v>40358</v>
       </c>
       <c r="E226" s="4">
         <v>2017</v>
@@ -6616,16 +6851,16 @@
     </row>
     <row r="227" spans="1:10" ht="21">
       <c r="A227" s="5" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B227" s="2">
-        <v>3052</v>
+        <v>4616</v>
       </c>
       <c r="C227" s="2">
-        <v>2891</v>
+        <v>4371</v>
       </c>
       <c r="D227" s="3">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="E227" s="4">
         <v>2017</v>
@@ -6640,16 +6875,16 @@
     </row>
     <row r="228" spans="1:10" ht="21">
       <c r="A228" s="5" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B228" s="2">
-        <v>731702</v>
+        <v>1109599</v>
       </c>
       <c r="C228" s="2">
-        <v>287401</v>
+        <v>435050</v>
       </c>
       <c r="D228" s="2">
-        <v>444300</v>
+        <v>674548</v>
       </c>
       <c r="E228" s="4">
         <v>2017</v>
@@ -6664,16 +6899,16 @@
     </row>
     <row r="229" spans="1:10" ht="21">
       <c r="A229" s="5" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B229" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C229" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229" s="4">
         <v>2017</v>
@@ -6688,16 +6923,16 @@
     </row>
     <row r="230" spans="1:10" ht="21">
       <c r="A230" s="5" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B230" s="2">
-        <v>136550</v>
+        <v>207437</v>
       </c>
       <c r="C230" s="2">
-        <v>47791</v>
+        <v>72347</v>
       </c>
       <c r="D230" s="2">
-        <v>88759</v>
+        <v>135090</v>
       </c>
       <c r="E230" s="4">
         <v>2017</v>
@@ -6712,16 +6947,16 @@
     </row>
     <row r="231" spans="1:10" ht="21">
       <c r="A231" s="5" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B231" s="3">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="C231" s="3">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="4">
         <v>2017</v>
@@ -6736,16 +6971,16 @@
     </row>
     <row r="232" spans="1:10" ht="21">
       <c r="A232" s="5" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B232" s="2">
-        <v>34722</v>
+        <v>52773</v>
       </c>
       <c r="C232" s="2">
-        <v>4618</v>
+        <v>6973</v>
       </c>
       <c r="D232" s="2">
-        <v>30104</v>
+        <v>45799</v>
       </c>
       <c r="E232" s="4">
         <v>2017</v>
@@ -6760,16 +6995,16 @@
     </row>
     <row r="233" spans="1:10" ht="21">
       <c r="A233" s="5" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="B233" s="2">
-        <v>1946</v>
+        <v>2937</v>
       </c>
       <c r="C233" s="2">
-        <v>1869</v>
+        <v>2819</v>
       </c>
       <c r="D233" s="3">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E233" s="4">
         <v>2017</v>
@@ -6784,16 +7019,16 @@
     </row>
     <row r="234" spans="1:10" ht="21">
       <c r="A234" s="5" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B234" s="3">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C234" s="3">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="4">
         <v>2017</v>
@@ -6808,16 +7043,16 @@
     </row>
     <row r="235" spans="1:10" ht="21">
       <c r="A235" s="5" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="4">
         <v>2017</v>
@@ -6832,16 +7067,16 @@
     </row>
     <row r="236" spans="1:10" ht="21">
       <c r="A236" s="5" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="B236" s="2">
-        <v>2851</v>
+        <v>4323</v>
       </c>
       <c r="C236" s="2">
-        <v>2840</v>
+        <v>4306</v>
       </c>
       <c r="D236" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E236" s="4">
         <v>2017</v>
@@ -6856,13 +7091,13 @@
     </row>
     <row r="237" spans="1:10" ht="21">
       <c r="A237" s="5" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="B237" s="2">
-        <v>1220</v>
+        <v>1849</v>
       </c>
       <c r="C237" s="2">
-        <v>1220</v>
+        <v>1849</v>
       </c>
       <c r="D237" s="3">
         <v>0</v>
@@ -6880,16 +7115,16 @@
     </row>
     <row r="238" spans="1:10" ht="21">
       <c r="A238" s="5" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>448</v>
+        <v>674</v>
       </c>
       <c r="C238" s="3">
-        <v>448</v>
+        <v>674</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E238" s="4">
         <v>2017</v>
@@ -6904,13 +7139,13 @@
     </row>
     <row r="239" spans="1:10" ht="21">
       <c r="A239" s="5" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="B239" s="2">
-        <v>1069</v>
+        <v>1610</v>
       </c>
       <c r="C239" s="2">
-        <v>1069</v>
+        <v>1609</v>
       </c>
       <c r="D239" s="3">
         <v>0</v>
@@ -6928,16 +7163,16 @@
     </row>
     <row r="240" spans="1:10" ht="21">
       <c r="A240" s="5" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="B240" s="2">
-        <v>120423</v>
+        <v>181391</v>
       </c>
       <c r="C240" s="2">
-        <v>120416</v>
+        <v>181381</v>
       </c>
       <c r="D240" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E240" s="4">
         <v>2017</v>
@@ -6952,13 +7187,13 @@
     </row>
     <row r="241" spans="1:10" ht="21">
       <c r="A241" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B241" s="3">
-        <v>789</v>
-      </c>
-      <c r="C241" s="3">
-        <v>789</v>
+        <v>245</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1198</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1198</v>
       </c>
       <c r="D241" s="3">
         <v>0</v>
@@ -6976,16 +7211,16 @@
     </row>
     <row r="242" spans="1:10" ht="21">
       <c r="A242" s="5" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="B242" s="2">
-        <v>3717</v>
+        <v>5625</v>
       </c>
       <c r="C242" s="2">
-        <v>3503</v>
+        <v>5299</v>
       </c>
       <c r="D242" s="3">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="E242" s="4">
         <v>2017</v>
@@ -7000,16 +7235,16 @@
     </row>
     <row r="243" spans="1:10" ht="21">
       <c r="A243" s="5" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B243" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C243" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E243" s="4">
         <v>2017</v>
@@ -7024,16 +7259,16 @@
     </row>
     <row r="244" spans="1:10" ht="21">
       <c r="A244" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="C244" s="3">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E244" s="4">
         <v>2017</v>
@@ -7048,16 +7283,16 @@
     </row>
     <row r="245" spans="1:10" ht="21">
       <c r="A245" s="5" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B245" s="2">
-        <v>17572</v>
+        <v>26712</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D245" s="2">
-        <v>17572</v>
+        <v>26712</v>
       </c>
       <c r="E245" s="4">
         <v>2017</v>
